--- a/billeder og moduler/Gantt.xlsx
+++ b/billeder og moduler/Gantt.xlsx
@@ -1200,7 +1200,7 @@
   <dimension ref="A2:BQ36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1587,8 +1587,12 @@
       <c r="E12" s="24">
         <v>6</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
@@ -1624,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="14">
-        <v>0.66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1658,9 +1662,13 @@
       <c r="D16" s="24">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24">
+        <v>10</v>
+      </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
@@ -1675,8 +1683,12 @@
       <c r="E17" s="24">
         <v>6</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
@@ -1689,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18" s="24">
         <v>3</v>
@@ -1840,7 +1852,9 @@
       <c r="D28" s="24">
         <v>2</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24">
+        <v>7</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="14"/>
     </row>
@@ -1854,7 +1868,9 @@
       <c r="D29" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="24">
+        <v>14</v>
+      </c>
       <c r="F29" s="24"/>
       <c r="G29" s="14"/>
     </row>
@@ -1871,8 +1887,12 @@
       <c r="E30" s="24">
         <v>9</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="24">
+        <v>3</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
@@ -1940,9 +1960,15 @@
       <c r="D35" s="26">
         <v>28</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="21"/>
+      <c r="E35" s="26">
+        <v>6</v>
+      </c>
+      <c r="F35" s="26">
+        <v>4</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0.11</v>
+      </c>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.3">

--- a/billeder og moduler/Gantt.xlsx
+++ b/billeder og moduler/Gantt.xlsx
@@ -1200,7 +1200,7 @@
   <dimension ref="A2:BQ36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -1650,7 +1650,9 @@
       <c r="F15" s="24">
         <v>2</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
@@ -1665,9 +1667,11 @@
       <c r="E16" s="24">
         <v>10</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="24">
+        <v>7</v>
+      </c>
       <c r="G16" s="14">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1740,9 +1744,15 @@
       <c r="D20" s="24">
         <v>3</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="24">
+        <v>21</v>
+      </c>
+      <c r="F20" s="24">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
@@ -1754,9 +1764,15 @@
       <c r="D21" s="24">
         <v>2</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="24">
+        <v>20</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
@@ -1768,9 +1784,15 @@
       <c r="D22" s="24">
         <v>3</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="24">
+        <v>19</v>
+      </c>
+      <c r="F22" s="24">
+        <v>4</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
@@ -1782,9 +1804,15 @@
       <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="24">
+        <v>26</v>
+      </c>
+      <c r="F23" s="24">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -1796,9 +1824,15 @@
       <c r="D24" s="24">
         <v>3</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="24">
+        <v>21</v>
+      </c>
+      <c r="F24" s="24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
@@ -1810,9 +1844,15 @@
       <c r="D25" s="24">
         <v>2</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="24">
+        <v>21</v>
+      </c>
+      <c r="F25" s="24">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
@@ -1824,9 +1864,15 @@
       <c r="D26" s="24">
         <v>5</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="24">
+        <v>22</v>
+      </c>
+      <c r="F26" s="24">
+        <v>2</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
@@ -1838,9 +1884,15 @@
       <c r="D27" s="24">
         <v>2</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="14"/>
+      <c r="E27" s="24">
+        <v>18</v>
+      </c>
+      <c r="F27" s="24">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
@@ -1855,8 +1907,12 @@
       <c r="E28" s="24">
         <v>7</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="24">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
@@ -1869,10 +1925,14 @@
         <v>1</v>
       </c>
       <c r="E29" s="24">
-        <v>14</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="F29" s="24">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
@@ -1906,7 +1966,9 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
@@ -1920,7 +1982,9 @@
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
@@ -1934,7 +1998,9 @@
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
@@ -1948,7 +2014,9 @@
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
@@ -1964,10 +2032,10 @@
         <v>6</v>
       </c>
       <c r="F35" s="26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G35" s="21">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="H35" s="22"/>
     </row>

--- a/billeder og moduler/Gantt.xlsx
+++ b/billeder og moduler/Gantt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1199,8 +1202,8 @@
   </sheetPr>
   <dimension ref="A2:BQ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1222,7 +1225,8 @@
     <col min="31" max="36" width="3.625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.125" customWidth="1"/>
     <col min="38" max="38" width="3.5" customWidth="1"/>
-    <col min="40" max="43" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="48" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="50" max="56" width="3.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
@@ -1399,6 +1403,15 @@
         <v>42</v>
       </c>
       <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
     </row>
     <row r="9" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -1504,22 +1517,54 @@
       <c r="AN9" s="3">
         <v>32</v>
       </c>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
+      <c r="AO9" s="3">
+        <v>33</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>34</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>35</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>36</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>37</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>38</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>39</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>40</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>41</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>42</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>43</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>44</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>45</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>46</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>47</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>48</v>
+      </c>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
       <c r="BG9" s="3"/>
@@ -1671,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,10 +1753,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,10 +1793,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1768,10 +1813,10 @@
         <v>20</v>
       </c>
       <c r="F21" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21" s="14">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1808,10 +1853,10 @@
         <v>26</v>
       </c>
       <c r="F23" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="14">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1964,10 +2009,14 @@
       <c r="D31" s="24">
         <v>1</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="E31" s="24">
+        <v>16</v>
+      </c>
+      <c r="F31" s="24">
+        <v>4</v>
+      </c>
       <c r="G31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1980,10 +2029,14 @@
       <c r="D32" s="24">
         <v>9</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="24">
+        <v>31</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
       <c r="G32" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1996,10 +2049,14 @@
       <c r="D33" s="24">
         <v>5</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="24">
+        <v>35</v>
+      </c>
+      <c r="F33" s="24">
+        <v>2</v>
+      </c>
       <c r="G33" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2012,10 +2069,14 @@
       <c r="D34" s="24">
         <v>4</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="E34" s="24">
+        <v>38</v>
+      </c>
+      <c r="F34" s="24">
+        <v>3</v>
+      </c>
       <c r="G34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2032,10 +2093,10 @@
         <v>6</v>
       </c>
       <c r="F35" s="26">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G35" s="21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H35" s="22"/>
     </row>
@@ -2081,7 +2142,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I10:BP25 I28:BP36 I26:T27 V26:BP27">
+  <conditionalFormatting sqref="I36:BP36 I26:T27 BE10:BP35 I10:BD25 V26:BD27 I28:BD35">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentFuldført</formula>
     </cfRule>
